--- a/original_data/dati salvati.xlsx
+++ b/original_data/dati salvati.xlsx
@@ -8,21 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasquettier/Library/Mobile Documents/com~apple~CloudDocs/01.WORK/09.Cariparo/02.Data/github/CPO_online_AIM1/original_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C529CD82-8537-0F4C-AAD9-074AE7CB600C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3FDD24-992C-B54E-BCF6-38D9DBF612C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="2600" windowWidth="27640" windowHeight="16940" activeTab="3" xr2:uid="{27DF4848-7C5B-DF42-9237-C4BBC217B84D}"/>
+    <workbookView xWindow="10080" yWindow="3100" windowWidth="27640" windowHeight="16940" activeTab="4" xr2:uid="{27DF4848-7C5B-DF42-9237-C4BBC217B84D}"/>
   </bookViews>
   <sheets>
     <sheet name="data_exp_88303-v13_questionnair" sheetId="2" r:id="rId1"/>
     <sheet name="Foglio1" sheetId="1" r:id="rId2"/>
     <sheet name="Foglio2" sheetId="3" r:id="rId3"/>
     <sheet name="Foglio3" sheetId="4" r:id="rId4"/>
+    <sheet name="Foglio4" sheetId="5" r:id="rId5"/>
+    <sheet name="Foglio6" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Foglio2!$A$1:$AE$324</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Foglio2!$A$1:$AC$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Foglio3!$A$1:$F$1</definedName>
-    <definedName name="data_exp_88303_v13_questionnaire_92v3_1" localSheetId="2">Foglio2!$A$1:$AE$324</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Foglio4!$A$2:$E$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Foglio6!$A$1:$AG$1</definedName>
+    <definedName name="data_exp_88303_v13_questionnaire_92v3_1" localSheetId="2">Foglio2!$A$2:$AD$314</definedName>
     <definedName name="data_exp_88303_v13_questionnaire_92v3_1" localSheetId="3">Foglio3!$A$1:$D$32</definedName>
+    <definedName name="data_exp_88303_v13_questionnaire_92v3_1" localSheetId="4">Foglio4!$A$1:$C$35</definedName>
+    <definedName name="data_exp_88303_v13_questionnaire_92v3_1" localSheetId="5">Foglio6!$A$1:$D$70</definedName>
     <definedName name="DatiEsterni_1" localSheetId="0" hidden="1">'data_exp_88303-v13_questionnair'!$A$1:$E$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -121,14 +127,88 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" xr16:uid="{CF5278B1-D6E4-1F44-B760-868C9B10FCDC}" keepAlive="1" name="Query - data_exp_88303-v13_questionnaire-92v3" description="Connessione alla query 'data_exp_88303-v13_questionnaire-92v3' nella cartella di lavoro." type="5" refreshedVersion="8" background="1" saveData="1">
+  <connection id="3" xr16:uid="{EBB4CBCF-86CE-5945-B25A-EE4AA102103C}" name="data_exp_88303-v13_questionnaire-92v32" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="65001" sourceFile="/Users/thomasquettier/Library/Mobile Documents/com~apple~CloudDocs/01.WORK/09.Cariparo/02.Data/github/CPO_online_AIM1/original_data/data_exp_88303-v13_questionnaire-92v3.csv" decimal="," thousands="." comma="1">
+      <textFields count="31">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="4" xr16:uid="{80791D31-7866-4241-AD8E-E06CF4747B4D}" name="data_exp_88303-v13_questionnaire-92v33" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="65001" sourceFile="/Users/thomasquettier/Library/Mobile Documents/com~apple~CloudDocs/01.WORK/09.Cariparo/02.Data/github/CPO_online_AIM1/original_data/data_exp_88303-v13_questionnaire-92v3.csv" decimal="," thousands="." comma="1">
+      <textFields count="31">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="5" xr16:uid="{CF5278B1-D6E4-1F44-B760-868C9B10FCDC}" keepAlive="1" name="Query - data_exp_88303-v13_questionnaire-92v3" description="Connessione alla query 'data_exp_88303-v13_questionnaire-92v3' nella cartella di lavoro." type="5" refreshedVersion="8" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=data_exp_88303-v13_questionnaire-92v3;Extended Properties=&quot;&quot;" command="SELECT * FROM [data_exp_88303-v13_questionnaire-92v3]"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="150">
   <si>
     <t>UTC Date</t>
   </si>
@@ -458,13 +538,133 @@
   </si>
   <si>
     <t>Como</t>
+  </si>
+  <si>
+    <t>giusepperuggiero@studenti.majoranabrindisi.org</t>
+  </si>
+  <si>
+    <t>andrea.orio@libero.it</t>
+  </si>
+  <si>
+    <t>i1d40oys</t>
+  </si>
+  <si>
+    <t>Udine</t>
+  </si>
+  <si>
+    <t>patt.bon@libero.it</t>
+  </si>
+  <si>
+    <t>csko0bac</t>
+  </si>
+  <si>
+    <t>Modena</t>
+  </si>
+  <si>
+    <t>anitazoff@yahoo.it</t>
+  </si>
+  <si>
+    <t>zmlc6h4w</t>
+  </si>
+  <si>
+    <t>Frosinone</t>
+  </si>
+  <si>
+    <t>kaa25up2</t>
+  </si>
+  <si>
+    <t>paolademarchi888@gmail.com</t>
+  </si>
+  <si>
+    <t>claudiaschiazzano95@gmail.com</t>
+  </si>
+  <si>
+    <t>cescand@libero.it</t>
+  </si>
+  <si>
+    <t>germanamassimino@yahoo.it</t>
+  </si>
+  <si>
+    <t>r.paola2903@tiscali.it</t>
+  </si>
+  <si>
+    <t>caterina.gobbi@gmail.com</t>
+  </si>
+  <si>
+    <t>fam.bruss@alice.it</t>
+  </si>
+  <si>
+    <t>conzato.thomas@gmail.com</t>
+  </si>
+  <si>
+    <t>irene.frsina@hotmail.it</t>
+  </si>
+  <si>
+    <t>maestri.barbara23@gmail.com</t>
+  </si>
+  <si>
+    <t>zaramella.emanuela@gmail.com</t>
+  </si>
+  <si>
+    <t>totirizzetto@gmail.com</t>
+  </si>
+  <si>
+    <t>milenadalmedico@libero.it</t>
+  </si>
+  <si>
+    <t>soniapav71@gmail.com</t>
+  </si>
+  <si>
+    <t>loleggiofrancesca69@gmail.com</t>
+  </si>
+  <si>
+    <t>cinzia.dallarmi@libero.it</t>
+  </si>
+  <si>
+    <t>marianna.plai@yhoo.it</t>
+  </si>
+  <si>
+    <t>lisamarco.vanni@gmail.com</t>
+  </si>
+  <si>
+    <t>alicerighetti03@gmail.com</t>
+  </si>
+  <si>
+    <t>antonella.luconi1966@gmail.com</t>
+  </si>
+  <si>
+    <t>amministrazione@tlfcablaggi.it</t>
+  </si>
+  <si>
+    <t>sandra.barracu@gmail.com</t>
+  </si>
+  <si>
+    <t>nicola.ciavarro@gmail.com</t>
+  </si>
+  <si>
+    <t>gioiagrace@yahoo.it</t>
+  </si>
+  <si>
+    <t>giacomoscalmani@gmail.com</t>
+  </si>
+  <si>
+    <t>mentova</t>
+  </si>
+  <si>
+    <t>trieste</t>
+  </si>
+  <si>
+    <t>Sassari</t>
+  </si>
+  <si>
+    <t>bari</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -482,6 +682,12 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -505,11 +711,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -541,7 +750,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DatiEsterni_1" connectionId="3" xr16:uid="{9409EF47-5103-F74D-B386-4CACEE5DCAFE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DatiEsterni_1" connectionId="5" xr16:uid="{9409EF47-5103-F74D-B386-4CACEE5DCAFE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="32">
     <queryTableFields count="5">
       <queryTableField id="3" name="UTC Date" tableColumnId="3"/>
@@ -588,6 +797,14 @@
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="data_exp_88303_v13_questionnaire_92v3_1" connectionId="2" xr16:uid="{AA619F23-B5BC-C141-B268-921F796119E6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="data_exp_88303_v13_questionnaire_92v3_1" connectionId="3" xr16:uid="{4E16752E-C36B-5D4E-B503-BDEFBBA2DA95}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="data_exp_88303_v13_questionnaire_92v3_1" connectionId="4" xr16:uid="{A6C05D86-A6E9-A545-B1FE-039A8C8792DA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2750,1461 +2967,1492 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63E91DF3-84A4-3641-A419-DEA5D3B2C928}">
-  <dimension ref="A1:AD323"/>
+  <dimension ref="A2:AC313"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A34" sqref="A2:A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="31.83203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="29.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="AD1" s="2"/>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="AC2" s="2"/>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="AC3" s="2"/>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="AC4" s="2"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="AC5" s="3"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="AC7" s="2"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="AC8" s="2"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="AC9" s="2"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="AC10" s="2"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="AC11" s="2"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="AC12" s="2"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="AC13" s="2"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="AD2" s="2"/>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="AD3" s="2"/>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="AD4" s="2"/>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="AD5" s="2"/>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="AD6" s="2"/>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="AD7" s="2"/>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="2"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="AD8" s="2"/>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="B15" s="4">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="AC15" s="2"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="AD9" s="2"/>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="B16" s="4">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="AC16" s="2"/>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B17" s="4">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="AC18" s="2"/>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="AD10" s="2"/>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="B19" s="4">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="AC19" s="2"/>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="4">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="AC20" s="2"/>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="AD11" s="2"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="B21" s="4">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="AC21" s="2"/>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B22" s="4">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="AD12" s="2"/>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="B23" s="4">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="AC23" s="2"/>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="AD13" s="2"/>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="B24" s="4">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="AC24" s="2"/>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="4">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="AC25" s="2"/>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" s="4">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="4">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="AC27" s="2"/>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" s="4">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="AD14" s="2"/>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="B29" s="4">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="AC29" s="2"/>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" s="4">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="AC30" s="2"/>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" s="4">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32" s="4">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="AC32" s="2"/>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="AD15" s="2"/>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="AD16" s="2"/>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="AD17" s="2"/>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="C18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="AD18" s="2"/>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="C19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="AD19" s="2"/>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="C20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="AD20" s="2"/>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="AD21" s="2"/>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="C22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="AD22" s="2"/>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="C23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="AD23" s="2"/>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="C24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="AD24" s="2"/>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
-      <c r="C25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="AD25" s="2"/>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="AD26" s="2"/>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="C27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="AD27" s="2"/>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="C28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="AD28" s="2"/>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="AD29" s="3"/>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="AD30" s="2"/>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="AD31" s="2"/>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="AD32" s="2"/>
-    </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="AD33" s="2"/>
-    </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B33" s="4">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="AC33" s="2"/>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="AD34" s="2"/>
-    </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="AD35" s="2"/>
-    </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="AD36" s="2"/>
-    </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
-      <c r="C37" s="1"/>
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="C38" s="1"/>
-      <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="C39" s="1"/>
-      <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="C40" s="1"/>
-      <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="C41" s="1"/>
-      <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="C42" s="1"/>
-      <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="C43" s="1"/>
-      <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="C44" s="1"/>
-      <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="C45" s="1"/>
-      <c r="F45" s="1"/>
-    </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="C46" s="1"/>
-      <c r="F46" s="1"/>
-    </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="C47" s="1"/>
-      <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="C48" s="1"/>
-      <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C49" s="1"/>
-      <c r="F49" s="1"/>
-    </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C50" s="1"/>
-      <c r="F50" s="1"/>
-    </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C51" s="1"/>
-      <c r="F51" s="1"/>
-    </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C52" s="1"/>
-      <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C53" s="1"/>
-      <c r="F53" s="1"/>
-    </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C54" s="1"/>
-      <c r="F54" s="1"/>
-    </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C55" s="1"/>
-      <c r="F55" s="1"/>
-    </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C56" s="1"/>
-      <c r="F56" s="1"/>
-    </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C57" s="1"/>
-      <c r="F57" s="1"/>
-    </row>
-    <row r="58" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C58" s="1"/>
-      <c r="F58" s="1"/>
-    </row>
-    <row r="59" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C59" s="1"/>
-      <c r="F59" s="1"/>
-    </row>
-    <row r="60" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C60" s="1"/>
-      <c r="F60" s="1"/>
-    </row>
-    <row r="61" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C61" s="1"/>
-      <c r="F61" s="1"/>
-    </row>
-    <row r="62" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C62" s="1"/>
-      <c r="F62" s="1"/>
-    </row>
-    <row r="63" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C63" s="1"/>
-      <c r="F63" s="1"/>
-    </row>
-    <row r="64" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C64" s="1"/>
-      <c r="F64" s="1"/>
-    </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C65" s="1"/>
-      <c r="F65" s="1"/>
-    </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C66" s="1"/>
-      <c r="F66" s="1"/>
-    </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C67" s="1"/>
-      <c r="F67" s="1"/>
-    </row>
-    <row r="68" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C68" s="1"/>
-      <c r="F68" s="1"/>
-    </row>
-    <row r="69" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C69" s="1"/>
-      <c r="F69" s="1"/>
-    </row>
-    <row r="70" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C70" s="1"/>
-      <c r="F70" s="1"/>
-    </row>
-    <row r="71" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C71" s="1"/>
-      <c r="F71" s="1"/>
-    </row>
-    <row r="72" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C72" s="1"/>
-      <c r="F72" s="1"/>
-    </row>
-    <row r="73" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C73" s="1"/>
-      <c r="F73" s="1"/>
-    </row>
-    <row r="74" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C74" s="1"/>
-      <c r="F74" s="1"/>
-    </row>
-    <row r="75" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C75" s="1"/>
-      <c r="F75" s="1"/>
-    </row>
-    <row r="76" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C76" s="1"/>
-      <c r="F76" s="1"/>
-    </row>
-    <row r="77" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C77" s="1"/>
-      <c r="F77" s="1"/>
-    </row>
-    <row r="78" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C78" s="1"/>
-      <c r="F78" s="1"/>
-    </row>
-    <row r="79" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C79" s="1"/>
-      <c r="F79" s="1"/>
-    </row>
-    <row r="80" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C80" s="1"/>
-      <c r="F80" s="1"/>
-    </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C81" s="1"/>
-      <c r="F81" s="1"/>
-    </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C82" s="1"/>
-      <c r="F82" s="1"/>
-    </row>
-    <row r="83" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C83" s="1"/>
-      <c r="F83" s="1"/>
-    </row>
-    <row r="84" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C84" s="1"/>
-      <c r="F84" s="1"/>
-    </row>
-    <row r="85" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C85" s="1"/>
-      <c r="F85" s="1"/>
-    </row>
-    <row r="86" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C86" s="1"/>
-      <c r="F86" s="1"/>
-    </row>
-    <row r="87" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C87" s="1"/>
-      <c r="F87" s="1"/>
-    </row>
-    <row r="88" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C88" s="1"/>
-      <c r="F88" s="1"/>
-    </row>
-    <row r="89" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C89" s="1"/>
-      <c r="F89" s="1"/>
-    </row>
-    <row r="90" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C90" s="1"/>
-      <c r="F90" s="1"/>
-    </row>
-    <row r="91" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C91" s="1"/>
-      <c r="F91" s="1"/>
-    </row>
-    <row r="92" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C92" s="1"/>
-      <c r="F92" s="1"/>
-    </row>
-    <row r="93" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C93" s="1"/>
-      <c r="F93" s="1"/>
-    </row>
-    <row r="94" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C94" s="1"/>
-      <c r="F94" s="1"/>
-    </row>
-    <row r="95" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C95" s="1"/>
-      <c r="F95" s="1"/>
-    </row>
-    <row r="96" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C96" s="1"/>
-      <c r="F96" s="1"/>
-    </row>
-    <row r="97" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C97" s="1"/>
-      <c r="F97" s="1"/>
-    </row>
-    <row r="98" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C98" s="1"/>
-      <c r="F98" s="1"/>
-    </row>
-    <row r="99" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C99" s="1"/>
-      <c r="F99" s="1"/>
-    </row>
-    <row r="100" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C100" s="1"/>
-      <c r="F100" s="1"/>
-    </row>
-    <row r="101" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C101" s="1"/>
-      <c r="F101" s="1"/>
-    </row>
-    <row r="102" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C102" s="1"/>
-      <c r="F102" s="1"/>
-    </row>
-    <row r="103" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C103" s="1"/>
-      <c r="F103" s="1"/>
-    </row>
-    <row r="104" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C104" s="1"/>
-      <c r="F104" s="1"/>
-    </row>
-    <row r="105" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C105" s="1"/>
-      <c r="F105" s="1"/>
-    </row>
-    <row r="106" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C106" s="1"/>
-      <c r="F106" s="1"/>
-    </row>
-    <row r="107" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C107" s="1"/>
-      <c r="F107" s="1"/>
-    </row>
-    <row r="108" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C108" s="1"/>
-      <c r="F108" s="1"/>
-    </row>
-    <row r="109" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C109" s="1"/>
-      <c r="F109" s="1"/>
-    </row>
-    <row r="110" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C110" s="1"/>
-      <c r="F110" s="1"/>
-    </row>
-    <row r="111" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C111" s="1"/>
-      <c r="F111" s="1"/>
-    </row>
-    <row r="112" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C112" s="1"/>
-      <c r="F112" s="1"/>
-    </row>
-    <row r="113" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C113" s="1"/>
-      <c r="F113" s="1"/>
-    </row>
-    <row r="114" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C114" s="1"/>
-      <c r="F114" s="1"/>
-    </row>
-    <row r="115" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C115" s="1"/>
-      <c r="F115" s="1"/>
-    </row>
-    <row r="116" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C116" s="1"/>
-      <c r="F116" s="1"/>
-    </row>
-    <row r="117" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C117" s="1"/>
-      <c r="F117" s="1"/>
-    </row>
-    <row r="118" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C118" s="1"/>
-      <c r="F118" s="1"/>
-    </row>
-    <row r="119" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C119" s="1"/>
-      <c r="F119" s="1"/>
-    </row>
-    <row r="120" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C120" s="1"/>
-      <c r="F120" s="1"/>
-    </row>
-    <row r="121" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C121" s="1"/>
-      <c r="F121" s="1"/>
-    </row>
-    <row r="122" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C122" s="1"/>
-      <c r="F122" s="1"/>
-    </row>
-    <row r="123" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C123" s="1"/>
-      <c r="F123" s="1"/>
-    </row>
-    <row r="124" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C124" s="1"/>
-      <c r="F124" s="1"/>
-    </row>
-    <row r="125" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C125" s="1"/>
-      <c r="F125" s="1"/>
-    </row>
-    <row r="126" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C126" s="1"/>
-      <c r="F126" s="1"/>
-    </row>
-    <row r="127" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C127" s="1"/>
-      <c r="F127" s="1"/>
-    </row>
-    <row r="128" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C128" s="1"/>
-      <c r="F128" s="1"/>
-    </row>
-    <row r="129" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C129" s="1"/>
-      <c r="F129" s="1"/>
-    </row>
-    <row r="130" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C130" s="1"/>
-      <c r="F130" s="1"/>
-    </row>
-    <row r="131" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C131" s="1"/>
-      <c r="F131" s="1"/>
-    </row>
-    <row r="132" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C132" s="1"/>
-      <c r="F132" s="1"/>
-    </row>
-    <row r="133" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C133" s="1"/>
-      <c r="F133" s="1"/>
-    </row>
-    <row r="134" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C134" s="1"/>
-      <c r="F134" s="1"/>
-    </row>
-    <row r="135" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C135" s="1"/>
-      <c r="F135" s="1"/>
-    </row>
-    <row r="136" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C136" s="1"/>
-      <c r="F136" s="1"/>
-    </row>
-    <row r="137" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C137" s="1"/>
-      <c r="F137" s="1"/>
-    </row>
-    <row r="138" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C138" s="1"/>
-      <c r="F138" s="1"/>
-    </row>
-    <row r="139" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C139" s="1"/>
-      <c r="F139" s="1"/>
-    </row>
-    <row r="140" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C140" s="1"/>
-      <c r="F140" s="1"/>
-    </row>
-    <row r="141" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C141" s="1"/>
-      <c r="F141" s="1"/>
-    </row>
-    <row r="142" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C142" s="1"/>
-      <c r="F142" s="1"/>
-    </row>
-    <row r="143" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C143" s="1"/>
-      <c r="F143" s="1"/>
-    </row>
-    <row r="144" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C144" s="1"/>
-      <c r="F144" s="1"/>
-    </row>
-    <row r="145" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C145" s="1"/>
-      <c r="F145" s="1"/>
-    </row>
-    <row r="146" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C146" s="1"/>
-      <c r="F146" s="1"/>
-    </row>
-    <row r="147" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C147" s="1"/>
-      <c r="F147" s="1"/>
-    </row>
-    <row r="148" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C148" s="1"/>
-      <c r="F148" s="1"/>
-    </row>
-    <row r="149" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C149" s="1"/>
-      <c r="F149" s="1"/>
-    </row>
-    <row r="150" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C150" s="1"/>
-      <c r="F150" s="1"/>
-    </row>
-    <row r="151" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C151" s="1"/>
-      <c r="F151" s="1"/>
-    </row>
-    <row r="152" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C152" s="1"/>
-      <c r="F152" s="1"/>
-    </row>
-    <row r="153" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C153" s="1"/>
-      <c r="F153" s="1"/>
-    </row>
-    <row r="154" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C154" s="1"/>
-      <c r="F154" s="1"/>
-    </row>
-    <row r="155" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C155" s="1"/>
-      <c r="F155" s="1"/>
-    </row>
-    <row r="156" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C156" s="1"/>
-      <c r="F156" s="1"/>
-    </row>
-    <row r="157" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C157" s="1"/>
-      <c r="F157" s="1"/>
-    </row>
-    <row r="158" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C158" s="1"/>
-      <c r="F158" s="1"/>
-    </row>
-    <row r="159" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C159" s="1"/>
-      <c r="F159" s="1"/>
-    </row>
-    <row r="160" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C160" s="1"/>
-      <c r="F160" s="1"/>
-    </row>
-    <row r="161" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C161" s="1"/>
-      <c r="F161" s="1"/>
-    </row>
-    <row r="162" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C162" s="1"/>
-      <c r="F162" s="1"/>
-    </row>
-    <row r="163" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C163" s="1"/>
-      <c r="F163" s="1"/>
-    </row>
-    <row r="164" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C164" s="1"/>
-      <c r="F164" s="1"/>
-    </row>
-    <row r="165" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C165" s="1"/>
-      <c r="F165" s="1"/>
-    </row>
-    <row r="166" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C166" s="1"/>
-      <c r="F166" s="1"/>
-    </row>
-    <row r="167" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C167" s="1"/>
-      <c r="F167" s="1"/>
-    </row>
-    <row r="168" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C168" s="1"/>
-      <c r="F168" s="1"/>
-    </row>
-    <row r="169" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C169" s="1"/>
-      <c r="F169" s="1"/>
-    </row>
-    <row r="170" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C170" s="1"/>
-      <c r="F170" s="1"/>
-    </row>
-    <row r="171" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C171" s="1"/>
-      <c r="F171" s="1"/>
-    </row>
-    <row r="172" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C172" s="1"/>
-      <c r="F172" s="1"/>
-    </row>
-    <row r="173" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C173" s="1"/>
-      <c r="F173" s="1"/>
-    </row>
-    <row r="174" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C174" s="1"/>
-      <c r="F174" s="1"/>
-    </row>
-    <row r="175" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C175" s="1"/>
-      <c r="F175" s="1"/>
-    </row>
-    <row r="176" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C176" s="1"/>
-      <c r="F176" s="1"/>
-    </row>
-    <row r="177" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C177" s="1"/>
-      <c r="F177" s="1"/>
-    </row>
-    <row r="178" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C178" s="1"/>
-      <c r="F178" s="1"/>
-    </row>
-    <row r="179" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C179" s="1"/>
-      <c r="F179" s="1"/>
-    </row>
-    <row r="180" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C180" s="1"/>
-      <c r="F180" s="1"/>
-    </row>
-    <row r="181" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C181" s="1"/>
-      <c r="F181" s="1"/>
-    </row>
-    <row r="182" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C182" s="1"/>
-      <c r="F182" s="1"/>
-    </row>
-    <row r="183" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C183" s="1"/>
-      <c r="F183" s="1"/>
-    </row>
-    <row r="184" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C184" s="1"/>
-      <c r="F184" s="1"/>
-    </row>
-    <row r="185" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C185" s="1"/>
-      <c r="F185" s="1"/>
-    </row>
-    <row r="186" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C186" s="1"/>
-      <c r="F186" s="1"/>
-    </row>
-    <row r="187" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C187" s="1"/>
-      <c r="F187" s="1"/>
-    </row>
-    <row r="188" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C188" s="1"/>
-      <c r="F188" s="1"/>
-    </row>
-    <row r="189" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C189" s="1"/>
-      <c r="F189" s="1"/>
-    </row>
-    <row r="190" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C190" s="1"/>
-      <c r="F190" s="1"/>
-    </row>
-    <row r="191" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C191" s="1"/>
-      <c r="F191" s="1"/>
-    </row>
-    <row r="192" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C192" s="1"/>
-      <c r="F192" s="1"/>
-    </row>
-    <row r="193" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C193" s="1"/>
-      <c r="F193" s="1"/>
-    </row>
-    <row r="194" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C194" s="1"/>
-      <c r="F194" s="1"/>
-    </row>
-    <row r="195" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C195" s="1"/>
-      <c r="F195" s="1"/>
-    </row>
-    <row r="196" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C196" s="1"/>
-      <c r="F196" s="1"/>
-    </row>
-    <row r="197" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C197" s="1"/>
-      <c r="F197" s="1"/>
-    </row>
-    <row r="198" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C198" s="1"/>
-      <c r="F198" s="1"/>
-    </row>
-    <row r="199" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C199" s="1"/>
-      <c r="F199" s="1"/>
-    </row>
-    <row r="200" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C200" s="1"/>
-      <c r="F200" s="1"/>
-    </row>
-    <row r="201" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C201" s="1"/>
-      <c r="F201" s="1"/>
-    </row>
-    <row r="202" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C202" s="1"/>
-      <c r="F202" s="1"/>
-    </row>
-    <row r="203" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C203" s="1"/>
-      <c r="F203" s="1"/>
-    </row>
-    <row r="204" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C204" s="1"/>
-      <c r="F204" s="1"/>
-    </row>
-    <row r="205" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C205" s="1"/>
-      <c r="F205" s="1"/>
-    </row>
-    <row r="206" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C206" s="1"/>
-      <c r="F206" s="1"/>
-    </row>
-    <row r="207" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C207" s="1"/>
-      <c r="F207" s="1"/>
-    </row>
-    <row r="208" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C208" s="1"/>
-      <c r="F208" s="1"/>
-    </row>
-    <row r="209" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C209" s="1"/>
-      <c r="F209" s="1"/>
-    </row>
-    <row r="210" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C210" s="1"/>
-      <c r="F210" s="1"/>
-    </row>
-    <row r="211" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C211" s="1"/>
-      <c r="F211" s="1"/>
-    </row>
-    <row r="212" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C212" s="1"/>
-      <c r="F212" s="1"/>
-    </row>
-    <row r="213" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C213" s="1"/>
-      <c r="F213" s="1"/>
-    </row>
-    <row r="214" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C214" s="1"/>
-      <c r="F214" s="1"/>
-    </row>
-    <row r="215" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C215" s="1"/>
-      <c r="F215" s="1"/>
-    </row>
-    <row r="216" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C216" s="1"/>
-      <c r="F216" s="1"/>
-    </row>
-    <row r="217" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C217" s="1"/>
-      <c r="F217" s="1"/>
-    </row>
-    <row r="218" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C218" s="1"/>
-      <c r="F218" s="1"/>
-    </row>
-    <row r="219" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C219" s="1"/>
-      <c r="F219" s="1"/>
-    </row>
-    <row r="220" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C220" s="1"/>
-      <c r="F220" s="1"/>
-    </row>
-    <row r="221" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C221" s="1"/>
-      <c r="F221" s="1"/>
-    </row>
-    <row r="222" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C222" s="1"/>
-      <c r="F222" s="1"/>
-    </row>
-    <row r="223" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C223" s="1"/>
-      <c r="F223" s="1"/>
-    </row>
-    <row r="224" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C224" s="1"/>
-      <c r="F224" s="1"/>
-    </row>
-    <row r="225" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C225" s="1"/>
-      <c r="F225" s="1"/>
-    </row>
-    <row r="226" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C226" s="1"/>
-      <c r="F226" s="1"/>
-    </row>
-    <row r="227" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C227" s="1"/>
-      <c r="F227" s="1"/>
-    </row>
-    <row r="228" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C228" s="1"/>
-      <c r="F228" s="1"/>
-    </row>
-    <row r="229" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C229" s="1"/>
-      <c r="F229" s="1"/>
-    </row>
-    <row r="230" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C230" s="1"/>
-      <c r="F230" s="1"/>
-    </row>
-    <row r="231" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C231" s="1"/>
-      <c r="F231" s="1"/>
-    </row>
-    <row r="232" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C232" s="1"/>
-      <c r="F232" s="1"/>
-    </row>
-    <row r="233" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C233" s="1"/>
-      <c r="F233" s="1"/>
-    </row>
-    <row r="234" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C234" s="1"/>
-      <c r="F234" s="1"/>
-    </row>
-    <row r="235" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C235" s="1"/>
-      <c r="F235" s="1"/>
-    </row>
-    <row r="236" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C236" s="1"/>
-      <c r="F236" s="1"/>
-    </row>
-    <row r="237" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C237" s="1"/>
-      <c r="F237" s="1"/>
-    </row>
-    <row r="238" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C238" s="1"/>
-      <c r="F238" s="1"/>
-    </row>
-    <row r="239" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C239" s="1"/>
-      <c r="F239" s="1"/>
-    </row>
-    <row r="240" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C240" s="1"/>
-      <c r="F240" s="1"/>
-    </row>
-    <row r="241" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C241" s="1"/>
-      <c r="F241" s="1"/>
-    </row>
-    <row r="242" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C242" s="1"/>
-      <c r="F242" s="1"/>
-    </row>
-    <row r="243" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C243" s="1"/>
-      <c r="F243" s="1"/>
-    </row>
-    <row r="244" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C244" s="1"/>
-      <c r="F244" s="1"/>
-    </row>
-    <row r="245" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C245" s="1"/>
-      <c r="F245" s="1"/>
-    </row>
-    <row r="246" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C246" s="1"/>
-      <c r="F246" s="1"/>
-    </row>
-    <row r="247" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C247" s="1"/>
-      <c r="F247" s="1"/>
-    </row>
-    <row r="248" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C248" s="1"/>
-      <c r="F248" s="1"/>
-    </row>
-    <row r="249" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C249" s="1"/>
-      <c r="F249" s="1"/>
-    </row>
-    <row r="250" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C250" s="1"/>
-      <c r="F250" s="1"/>
-    </row>
-    <row r="251" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C251" s="1"/>
-      <c r="F251" s="1"/>
-    </row>
-    <row r="252" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C252" s="1"/>
-      <c r="F252" s="1"/>
-    </row>
-    <row r="253" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C253" s="1"/>
-      <c r="F253" s="1"/>
-    </row>
-    <row r="254" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C254" s="1"/>
-      <c r="F254" s="1"/>
-    </row>
-    <row r="255" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C255" s="1"/>
-      <c r="F255" s="1"/>
-    </row>
-    <row r="256" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C256" s="1"/>
-      <c r="F256" s="1"/>
-    </row>
-    <row r="257" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C257" s="1"/>
-      <c r="F257" s="1"/>
-    </row>
-    <row r="258" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C258" s="1"/>
-      <c r="F258" s="1"/>
-    </row>
-    <row r="259" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C259" s="1"/>
-      <c r="F259" s="1"/>
-    </row>
-    <row r="260" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C260" s="1"/>
-      <c r="F260" s="1"/>
-    </row>
-    <row r="261" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C261" s="1"/>
-      <c r="F261" s="1"/>
-    </row>
-    <row r="262" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C262" s="1"/>
-      <c r="F262" s="1"/>
-    </row>
-    <row r="263" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C263" s="1"/>
-      <c r="F263" s="1"/>
-    </row>
-    <row r="264" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C264" s="1"/>
-      <c r="F264" s="1"/>
-    </row>
-    <row r="265" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C265" s="1"/>
-      <c r="F265" s="1"/>
-    </row>
-    <row r="266" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C266" s="1"/>
-      <c r="F266" s="1"/>
-    </row>
-    <row r="267" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C267" s="1"/>
-      <c r="F267" s="1"/>
-    </row>
-    <row r="268" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C268" s="1"/>
-      <c r="F268" s="1"/>
-    </row>
-    <row r="269" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C269" s="1"/>
-      <c r="F269" s="1"/>
-    </row>
-    <row r="270" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C270" s="1"/>
-      <c r="F270" s="1"/>
-    </row>
-    <row r="271" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C271" s="1"/>
-      <c r="F271" s="1"/>
-    </row>
-    <row r="272" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C272" s="1"/>
-      <c r="F272" s="1"/>
-    </row>
-    <row r="273" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C273" s="1"/>
-      <c r="F273" s="1"/>
-    </row>
-    <row r="274" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C274" s="1"/>
-      <c r="F274" s="1"/>
-    </row>
-    <row r="275" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C275" s="1"/>
-      <c r="F275" s="1"/>
-    </row>
-    <row r="276" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C276" s="1"/>
-      <c r="F276" s="1"/>
-    </row>
-    <row r="277" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C277" s="1"/>
-      <c r="F277" s="1"/>
-    </row>
-    <row r="278" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C278" s="1"/>
-      <c r="F278" s="1"/>
-    </row>
-    <row r="279" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C279" s="1"/>
-      <c r="F279" s="1"/>
-    </row>
-    <row r="280" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C280" s="1"/>
-      <c r="F280" s="1"/>
-    </row>
-    <row r="281" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C281" s="1"/>
-      <c r="F281" s="1"/>
-    </row>
-    <row r="282" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C282" s="1"/>
-      <c r="F282" s="1"/>
-    </row>
-    <row r="283" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C283" s="1"/>
-      <c r="F283" s="1"/>
-    </row>
-    <row r="284" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C284" s="1"/>
-      <c r="F284" s="1"/>
-    </row>
-    <row r="285" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C285" s="1"/>
-      <c r="F285" s="1"/>
-    </row>
-    <row r="286" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C286" s="1"/>
-      <c r="F286" s="1"/>
-    </row>
-    <row r="287" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C287" s="1"/>
-      <c r="F287" s="1"/>
-    </row>
-    <row r="288" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C288" s="1"/>
-      <c r="F288" s="1"/>
-    </row>
-    <row r="289" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C289" s="1"/>
-      <c r="F289" s="1"/>
-    </row>
-    <row r="290" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C290" s="1"/>
-      <c r="F290" s="1"/>
-    </row>
-    <row r="291" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C291" s="1"/>
-      <c r="F291" s="1"/>
-    </row>
-    <row r="292" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C292" s="1"/>
-      <c r="F292" s="1"/>
-    </row>
-    <row r="293" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C293" s="1"/>
-      <c r="F293" s="1"/>
-    </row>
-    <row r="294" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C294" s="1"/>
-      <c r="F294" s="1"/>
-    </row>
-    <row r="295" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C295" s="1"/>
-      <c r="F295" s="1"/>
-    </row>
-    <row r="296" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C296" s="1"/>
-      <c r="F296" s="1"/>
-    </row>
-    <row r="297" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C297" s="1"/>
-      <c r="F297" s="1"/>
-    </row>
-    <row r="298" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C298" s="1"/>
-      <c r="F298" s="1"/>
-    </row>
-    <row r="299" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C299" s="1"/>
-      <c r="F299" s="1"/>
-    </row>
-    <row r="300" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C300" s="1"/>
-      <c r="F300" s="1"/>
-    </row>
-    <row r="301" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C301" s="1"/>
-      <c r="F301" s="1"/>
-    </row>
-    <row r="302" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C302" s="1"/>
-      <c r="F302" s="1"/>
-    </row>
-    <row r="303" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C303" s="1"/>
-      <c r="F303" s="1"/>
-    </row>
-    <row r="304" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C304" s="1"/>
-      <c r="F304" s="1"/>
-    </row>
-    <row r="305" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C305" s="1"/>
-      <c r="F305" s="1"/>
-    </row>
-    <row r="306" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C306" s="1"/>
-      <c r="F306" s="1"/>
-    </row>
-    <row r="307" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C307" s="1"/>
-      <c r="F307" s="1"/>
-    </row>
-    <row r="308" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C308" s="1"/>
-      <c r="F308" s="1"/>
-    </row>
-    <row r="309" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C309" s="1"/>
-      <c r="F309" s="1"/>
-    </row>
-    <row r="310" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C310" s="1"/>
-      <c r="F310" s="1"/>
-    </row>
-    <row r="311" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C311" s="1"/>
-      <c r="F311" s="1"/>
-    </row>
-    <row r="312" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C312" s="1"/>
-      <c r="F312" s="1"/>
-    </row>
-    <row r="313" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C313" s="1"/>
-      <c r="F313" s="1"/>
-    </row>
-    <row r="314" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C314" s="1"/>
-      <c r="F314" s="1"/>
-    </row>
-    <row r="315" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C315" s="1"/>
-      <c r="F315" s="1"/>
-    </row>
-    <row r="316" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C316" s="1"/>
-      <c r="F316" s="1"/>
-    </row>
-    <row r="317" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C317" s="1"/>
-      <c r="F317" s="1"/>
-    </row>
-    <row r="318" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C318" s="1"/>
-      <c r="F318" s="1"/>
-    </row>
-    <row r="319" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C319" s="1"/>
-      <c r="F319" s="1"/>
-    </row>
-    <row r="320" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C320" s="1"/>
-      <c r="F320" s="1"/>
-    </row>
-    <row r="321" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C321" s="1"/>
-      <c r="F321" s="1"/>
-    </row>
-    <row r="322" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C322" s="1"/>
-      <c r="F322" s="1"/>
-    </row>
-    <row r="323" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C323" s="1"/>
-      <c r="F323" s="1"/>
+        <v>118</v>
+      </c>
+      <c r="B34" s="4">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B35" s="5"/>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B36" s="1"/>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B37" s="1"/>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B38" s="1"/>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B39" s="1"/>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B40" s="1"/>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B41" s="1"/>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B42" s="1"/>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B43" s="1"/>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B44" s="1"/>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B45" s="1"/>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B46" s="1"/>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B47" s="1"/>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B48" s="1"/>
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B49" s="1"/>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B50" s="1"/>
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B51" s="1"/>
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B52" s="1"/>
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B53" s="1"/>
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B54" s="1"/>
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B55" s="1"/>
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B56" s="1"/>
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B57" s="1"/>
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B58" s="1"/>
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B59" s="1"/>
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B60" s="1"/>
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B61" s="1"/>
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B62" s="1"/>
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B63" s="1"/>
+      <c r="E63" s="1"/>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B64" s="1"/>
+      <c r="E64" s="1"/>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B65" s="1"/>
+      <c r="E65" s="1"/>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B66" s="1"/>
+      <c r="E66" s="1"/>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B67" s="1"/>
+      <c r="E67" s="1"/>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B68" s="1"/>
+      <c r="E68" s="1"/>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B69" s="1"/>
+      <c r="E69" s="1"/>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B70" s="1"/>
+      <c r="E70" s="1"/>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B71" s="1"/>
+      <c r="E71" s="1"/>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B72" s="1"/>
+      <c r="E72" s="1"/>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B73" s="1"/>
+      <c r="E73" s="1"/>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B74" s="1"/>
+      <c r="E74" s="1"/>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B75" s="1"/>
+      <c r="E75" s="1"/>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B76" s="1"/>
+      <c r="E76" s="1"/>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B77" s="1"/>
+      <c r="E77" s="1"/>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B78" s="1"/>
+      <c r="E78" s="1"/>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B79" s="1"/>
+      <c r="E79" s="1"/>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B80" s="1"/>
+      <c r="E80" s="1"/>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B81" s="1"/>
+      <c r="E81" s="1"/>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B82" s="1"/>
+      <c r="E82" s="1"/>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B83" s="1"/>
+      <c r="E83" s="1"/>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B84" s="1"/>
+      <c r="E84" s="1"/>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B85" s="1"/>
+      <c r="E85" s="1"/>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B86" s="1"/>
+      <c r="E86" s="1"/>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B87" s="1"/>
+      <c r="E87" s="1"/>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B88" s="1"/>
+      <c r="E88" s="1"/>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B89" s="1"/>
+      <c r="E89" s="1"/>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B90" s="1"/>
+      <c r="E90" s="1"/>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B91" s="1"/>
+      <c r="E91" s="1"/>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B92" s="1"/>
+      <c r="E92" s="1"/>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B93" s="1"/>
+      <c r="E93" s="1"/>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B94" s="1"/>
+      <c r="E94" s="1"/>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B95" s="1"/>
+      <c r="E95" s="1"/>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B96" s="1"/>
+      <c r="E96" s="1"/>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B97" s="1"/>
+      <c r="E97" s="1"/>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B98" s="1"/>
+      <c r="E98" s="1"/>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B99" s="1"/>
+      <c r="E99" s="1"/>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B100" s="1"/>
+      <c r="E100" s="1"/>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B101" s="1"/>
+      <c r="E101" s="1"/>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B102" s="1"/>
+      <c r="E102" s="1"/>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B103" s="1"/>
+      <c r="E103" s="1"/>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B104" s="1"/>
+      <c r="E104" s="1"/>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B105" s="1"/>
+      <c r="E105" s="1"/>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B106" s="1"/>
+      <c r="E106" s="1"/>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B107" s="1"/>
+      <c r="E107" s="1"/>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B108" s="1"/>
+      <c r="E108" s="1"/>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B109" s="1"/>
+      <c r="E109" s="1"/>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B110" s="1"/>
+      <c r="E110" s="1"/>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B111" s="1"/>
+      <c r="E111" s="1"/>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B112" s="1"/>
+      <c r="E112" s="1"/>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B113" s="1"/>
+      <c r="E113" s="1"/>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B114" s="1"/>
+      <c r="E114" s="1"/>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B115" s="1"/>
+      <c r="E115" s="1"/>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B116" s="1"/>
+      <c r="E116" s="1"/>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B117" s="1"/>
+      <c r="E117" s="1"/>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B118" s="1"/>
+      <c r="E118" s="1"/>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B119" s="1"/>
+      <c r="E119" s="1"/>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B120" s="1"/>
+      <c r="E120" s="1"/>
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B121" s="1"/>
+      <c r="E121" s="1"/>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B122" s="1"/>
+      <c r="E122" s="1"/>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B123" s="1"/>
+      <c r="E123" s="1"/>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B124" s="1"/>
+      <c r="E124" s="1"/>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B125" s="1"/>
+      <c r="E125" s="1"/>
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B126" s="1"/>
+      <c r="E126" s="1"/>
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B127" s="1"/>
+      <c r="E127" s="1"/>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B128" s="1"/>
+      <c r="E128" s="1"/>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B129" s="1"/>
+      <c r="E129" s="1"/>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B130" s="1"/>
+      <c r="E130" s="1"/>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B131" s="1"/>
+      <c r="E131" s="1"/>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B132" s="1"/>
+      <c r="E132" s="1"/>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B133" s="1"/>
+      <c r="E133" s="1"/>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B134" s="1"/>
+      <c r="E134" s="1"/>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B135" s="1"/>
+      <c r="E135" s="1"/>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B136" s="1"/>
+      <c r="E136" s="1"/>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B137" s="1"/>
+      <c r="E137" s="1"/>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B138" s="1"/>
+      <c r="E138" s="1"/>
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B139" s="1"/>
+      <c r="E139" s="1"/>
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B140" s="1"/>
+      <c r="E140" s="1"/>
+    </row>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B141" s="1"/>
+      <c r="E141" s="1"/>
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B142" s="1"/>
+      <c r="E142" s="1"/>
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B143" s="1"/>
+      <c r="E143" s="1"/>
+    </row>
+    <row r="144" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B144" s="1"/>
+      <c r="E144" s="1"/>
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B145" s="1"/>
+      <c r="E145" s="1"/>
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B146" s="1"/>
+      <c r="E146" s="1"/>
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B147" s="1"/>
+      <c r="E147" s="1"/>
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B148" s="1"/>
+      <c r="E148" s="1"/>
+    </row>
+    <row r="149" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B149" s="1"/>
+      <c r="E149" s="1"/>
+    </row>
+    <row r="150" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B150" s="1"/>
+      <c r="E150" s="1"/>
+    </row>
+    <row r="151" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B151" s="1"/>
+      <c r="E151" s="1"/>
+    </row>
+    <row r="152" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B152" s="1"/>
+      <c r="E152" s="1"/>
+    </row>
+    <row r="153" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B153" s="1"/>
+      <c r="E153" s="1"/>
+    </row>
+    <row r="154" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B154" s="1"/>
+      <c r="E154" s="1"/>
+    </row>
+    <row r="155" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B155" s="1"/>
+      <c r="E155" s="1"/>
+    </row>
+    <row r="156" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B156" s="1"/>
+      <c r="E156" s="1"/>
+    </row>
+    <row r="157" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B157" s="1"/>
+      <c r="E157" s="1"/>
+    </row>
+    <row r="158" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B158" s="1"/>
+      <c r="E158" s="1"/>
+    </row>
+    <row r="159" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B159" s="1"/>
+      <c r="E159" s="1"/>
+    </row>
+    <row r="160" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B160" s="1"/>
+      <c r="E160" s="1"/>
+    </row>
+    <row r="161" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B161" s="1"/>
+      <c r="E161" s="1"/>
+    </row>
+    <row r="162" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B162" s="1"/>
+      <c r="E162" s="1"/>
+    </row>
+    <row r="163" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B163" s="1"/>
+      <c r="E163" s="1"/>
+    </row>
+    <row r="164" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B164" s="1"/>
+      <c r="E164" s="1"/>
+    </row>
+    <row r="165" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B165" s="1"/>
+      <c r="E165" s="1"/>
+    </row>
+    <row r="166" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B166" s="1"/>
+      <c r="E166" s="1"/>
+    </row>
+    <row r="167" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B167" s="1"/>
+      <c r="E167" s="1"/>
+    </row>
+    <row r="168" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B168" s="1"/>
+      <c r="E168" s="1"/>
+    </row>
+    <row r="169" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B169" s="1"/>
+      <c r="E169" s="1"/>
+    </row>
+    <row r="170" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B170" s="1"/>
+      <c r="E170" s="1"/>
+    </row>
+    <row r="171" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B171" s="1"/>
+      <c r="E171" s="1"/>
+    </row>
+    <row r="172" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B172" s="1"/>
+      <c r="E172" s="1"/>
+    </row>
+    <row r="173" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B173" s="1"/>
+      <c r="E173" s="1"/>
+    </row>
+    <row r="174" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B174" s="1"/>
+      <c r="E174" s="1"/>
+    </row>
+    <row r="175" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B175" s="1"/>
+      <c r="E175" s="1"/>
+    </row>
+    <row r="176" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B176" s="1"/>
+      <c r="E176" s="1"/>
+    </row>
+    <row r="177" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B177" s="1"/>
+      <c r="E177" s="1"/>
+    </row>
+    <row r="178" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B178" s="1"/>
+      <c r="E178" s="1"/>
+    </row>
+    <row r="179" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B179" s="1"/>
+      <c r="E179" s="1"/>
+    </row>
+    <row r="180" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B180" s="1"/>
+      <c r="E180" s="1"/>
+    </row>
+    <row r="181" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B181" s="1"/>
+      <c r="E181" s="1"/>
+    </row>
+    <row r="182" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B182" s="1"/>
+      <c r="E182" s="1"/>
+    </row>
+    <row r="183" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B183" s="1"/>
+      <c r="E183" s="1"/>
+    </row>
+    <row r="184" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B184" s="1"/>
+      <c r="E184" s="1"/>
+    </row>
+    <row r="185" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B185" s="1"/>
+      <c r="E185" s="1"/>
+    </row>
+    <row r="186" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B186" s="1"/>
+      <c r="E186" s="1"/>
+    </row>
+    <row r="187" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B187" s="1"/>
+      <c r="E187" s="1"/>
+    </row>
+    <row r="188" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B188" s="1"/>
+      <c r="E188" s="1"/>
+    </row>
+    <row r="189" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B189" s="1"/>
+      <c r="E189" s="1"/>
+    </row>
+    <row r="190" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B190" s="1"/>
+      <c r="E190" s="1"/>
+    </row>
+    <row r="191" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B191" s="1"/>
+      <c r="E191" s="1"/>
+    </row>
+    <row r="192" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B192" s="1"/>
+      <c r="E192" s="1"/>
+    </row>
+    <row r="193" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B193" s="1"/>
+      <c r="E193" s="1"/>
+    </row>
+    <row r="194" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B194" s="1"/>
+      <c r="E194" s="1"/>
+    </row>
+    <row r="195" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B195" s="1"/>
+      <c r="E195" s="1"/>
+    </row>
+    <row r="196" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B196" s="1"/>
+      <c r="E196" s="1"/>
+    </row>
+    <row r="197" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B197" s="1"/>
+      <c r="E197" s="1"/>
+    </row>
+    <row r="198" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B198" s="1"/>
+      <c r="E198" s="1"/>
+    </row>
+    <row r="199" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B199" s="1"/>
+      <c r="E199" s="1"/>
+    </row>
+    <row r="200" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B200" s="1"/>
+      <c r="E200" s="1"/>
+    </row>
+    <row r="201" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B201" s="1"/>
+      <c r="E201" s="1"/>
+    </row>
+    <row r="202" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B202" s="1"/>
+      <c r="E202" s="1"/>
+    </row>
+    <row r="203" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B203" s="1"/>
+      <c r="E203" s="1"/>
+    </row>
+    <row r="204" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B204" s="1"/>
+      <c r="E204" s="1"/>
+    </row>
+    <row r="205" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B205" s="1"/>
+      <c r="E205" s="1"/>
+    </row>
+    <row r="206" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B206" s="1"/>
+      <c r="E206" s="1"/>
+    </row>
+    <row r="207" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B207" s="1"/>
+      <c r="E207" s="1"/>
+    </row>
+    <row r="208" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B208" s="1"/>
+      <c r="E208" s="1"/>
+    </row>
+    <row r="209" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B209" s="1"/>
+      <c r="E209" s="1"/>
+    </row>
+    <row r="210" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B210" s="1"/>
+      <c r="E210" s="1"/>
+    </row>
+    <row r="211" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B211" s="1"/>
+      <c r="E211" s="1"/>
+    </row>
+    <row r="212" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B212" s="1"/>
+      <c r="E212" s="1"/>
+    </row>
+    <row r="213" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B213" s="1"/>
+      <c r="E213" s="1"/>
+    </row>
+    <row r="214" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B214" s="1"/>
+      <c r="E214" s="1"/>
+    </row>
+    <row r="215" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B215" s="1"/>
+      <c r="E215" s="1"/>
+    </row>
+    <row r="216" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B216" s="1"/>
+      <c r="E216" s="1"/>
+    </row>
+    <row r="217" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B217" s="1"/>
+      <c r="E217" s="1"/>
+    </row>
+    <row r="218" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B218" s="1"/>
+      <c r="E218" s="1"/>
+    </row>
+    <row r="219" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B219" s="1"/>
+      <c r="E219" s="1"/>
+    </row>
+    <row r="220" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B220" s="1"/>
+      <c r="E220" s="1"/>
+    </row>
+    <row r="221" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B221" s="1"/>
+      <c r="E221" s="1"/>
+    </row>
+    <row r="222" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B222" s="1"/>
+      <c r="E222" s="1"/>
+    </row>
+    <row r="223" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B223" s="1"/>
+      <c r="E223" s="1"/>
+    </row>
+    <row r="224" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B224" s="1"/>
+      <c r="E224" s="1"/>
+    </row>
+    <row r="225" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B225" s="1"/>
+      <c r="E225" s="1"/>
+    </row>
+    <row r="226" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B226" s="1"/>
+      <c r="E226" s="1"/>
+    </row>
+    <row r="227" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B227" s="1"/>
+      <c r="E227" s="1"/>
+    </row>
+    <row r="228" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B228" s="1"/>
+      <c r="E228" s="1"/>
+    </row>
+    <row r="229" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B229" s="1"/>
+      <c r="E229" s="1"/>
+    </row>
+    <row r="230" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B230" s="1"/>
+      <c r="E230" s="1"/>
+    </row>
+    <row r="231" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B231" s="1"/>
+      <c r="E231" s="1"/>
+    </row>
+    <row r="232" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B232" s="1"/>
+      <c r="E232" s="1"/>
+    </row>
+    <row r="233" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B233" s="1"/>
+      <c r="E233" s="1"/>
+    </row>
+    <row r="234" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B234" s="1"/>
+      <c r="E234" s="1"/>
+    </row>
+    <row r="235" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B235" s="1"/>
+      <c r="E235" s="1"/>
+    </row>
+    <row r="236" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B236" s="1"/>
+      <c r="E236" s="1"/>
+    </row>
+    <row r="237" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B237" s="1"/>
+      <c r="E237" s="1"/>
+    </row>
+    <row r="238" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B238" s="1"/>
+      <c r="E238" s="1"/>
+    </row>
+    <row r="239" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B239" s="1"/>
+      <c r="E239" s="1"/>
+    </row>
+    <row r="240" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B240" s="1"/>
+      <c r="E240" s="1"/>
+    </row>
+    <row r="241" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B241" s="1"/>
+      <c r="E241" s="1"/>
+    </row>
+    <row r="242" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B242" s="1"/>
+      <c r="E242" s="1"/>
+    </row>
+    <row r="243" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B243" s="1"/>
+      <c r="E243" s="1"/>
+    </row>
+    <row r="244" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B244" s="1"/>
+      <c r="E244" s="1"/>
+    </row>
+    <row r="245" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B245" s="1"/>
+      <c r="E245" s="1"/>
+    </row>
+    <row r="246" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B246" s="1"/>
+      <c r="E246" s="1"/>
+    </row>
+    <row r="247" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B247" s="1"/>
+      <c r="E247" s="1"/>
+    </row>
+    <row r="248" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B248" s="1"/>
+      <c r="E248" s="1"/>
+    </row>
+    <row r="249" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B249" s="1"/>
+      <c r="E249" s="1"/>
+    </row>
+    <row r="250" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B250" s="1"/>
+      <c r="E250" s="1"/>
+    </row>
+    <row r="251" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B251" s="1"/>
+      <c r="E251" s="1"/>
+    </row>
+    <row r="252" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B252" s="1"/>
+      <c r="E252" s="1"/>
+    </row>
+    <row r="253" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B253" s="1"/>
+      <c r="E253" s="1"/>
+    </row>
+    <row r="254" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B254" s="1"/>
+      <c r="E254" s="1"/>
+    </row>
+    <row r="255" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B255" s="1"/>
+      <c r="E255" s="1"/>
+    </row>
+    <row r="256" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B256" s="1"/>
+      <c r="E256" s="1"/>
+    </row>
+    <row r="257" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B257" s="1"/>
+      <c r="E257" s="1"/>
+    </row>
+    <row r="258" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B258" s="1"/>
+      <c r="E258" s="1"/>
+    </row>
+    <row r="259" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B259" s="1"/>
+      <c r="E259" s="1"/>
+    </row>
+    <row r="260" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B260" s="1"/>
+      <c r="E260" s="1"/>
+    </row>
+    <row r="261" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B261" s="1"/>
+      <c r="E261" s="1"/>
+    </row>
+    <row r="262" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B262" s="1"/>
+      <c r="E262" s="1"/>
+    </row>
+    <row r="263" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B263" s="1"/>
+      <c r="E263" s="1"/>
+    </row>
+    <row r="264" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B264" s="1"/>
+      <c r="E264" s="1"/>
+    </row>
+    <row r="265" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B265" s="1"/>
+      <c r="E265" s="1"/>
+    </row>
+    <row r="266" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B266" s="1"/>
+      <c r="E266" s="1"/>
+    </row>
+    <row r="267" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B267" s="1"/>
+      <c r="E267" s="1"/>
+    </row>
+    <row r="268" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B268" s="1"/>
+      <c r="E268" s="1"/>
+    </row>
+    <row r="269" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B269" s="1"/>
+      <c r="E269" s="1"/>
+    </row>
+    <row r="270" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B270" s="1"/>
+      <c r="E270" s="1"/>
+    </row>
+    <row r="271" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B271" s="1"/>
+      <c r="E271" s="1"/>
+    </row>
+    <row r="272" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B272" s="1"/>
+      <c r="E272" s="1"/>
+    </row>
+    <row r="273" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B273" s="1"/>
+      <c r="E273" s="1"/>
+    </row>
+    <row r="274" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B274" s="1"/>
+      <c r="E274" s="1"/>
+    </row>
+    <row r="275" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B275" s="1"/>
+      <c r="E275" s="1"/>
+    </row>
+    <row r="276" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B276" s="1"/>
+      <c r="E276" s="1"/>
+    </row>
+    <row r="277" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B277" s="1"/>
+      <c r="E277" s="1"/>
+    </row>
+    <row r="278" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B278" s="1"/>
+      <c r="E278" s="1"/>
+    </row>
+    <row r="279" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B279" s="1"/>
+      <c r="E279" s="1"/>
+    </row>
+    <row r="280" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B280" s="1"/>
+      <c r="E280" s="1"/>
+    </row>
+    <row r="281" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B281" s="1"/>
+      <c r="E281" s="1"/>
+    </row>
+    <row r="282" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B282" s="1"/>
+      <c r="E282" s="1"/>
+    </row>
+    <row r="283" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B283" s="1"/>
+      <c r="E283" s="1"/>
+    </row>
+    <row r="284" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B284" s="1"/>
+      <c r="E284" s="1"/>
+    </row>
+    <row r="285" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B285" s="1"/>
+      <c r="E285" s="1"/>
+    </row>
+    <row r="286" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B286" s="1"/>
+      <c r="E286" s="1"/>
+    </row>
+    <row r="287" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B287" s="1"/>
+      <c r="E287" s="1"/>
+    </row>
+    <row r="288" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B288" s="1"/>
+      <c r="E288" s="1"/>
+    </row>
+    <row r="289" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B289" s="1"/>
+      <c r="E289" s="1"/>
+    </row>
+    <row r="290" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B290" s="1"/>
+      <c r="E290" s="1"/>
+    </row>
+    <row r="291" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B291" s="1"/>
+      <c r="E291" s="1"/>
+    </row>
+    <row r="292" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B292" s="1"/>
+      <c r="E292" s="1"/>
+    </row>
+    <row r="293" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B293" s="1"/>
+      <c r="E293" s="1"/>
+    </row>
+    <row r="294" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B294" s="1"/>
+      <c r="E294" s="1"/>
+    </row>
+    <row r="295" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B295" s="1"/>
+      <c r="E295" s="1"/>
+    </row>
+    <row r="296" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B296" s="1"/>
+      <c r="E296" s="1"/>
+    </row>
+    <row r="297" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B297" s="1"/>
+      <c r="E297" s="1"/>
+    </row>
+    <row r="298" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B298" s="1"/>
+      <c r="E298" s="1"/>
+    </row>
+    <row r="299" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B299" s="1"/>
+      <c r="E299" s="1"/>
+    </row>
+    <row r="300" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B300" s="1"/>
+      <c r="E300" s="1"/>
+    </row>
+    <row r="301" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B301" s="1"/>
+      <c r="E301" s="1"/>
+    </row>
+    <row r="302" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B302" s="1"/>
+      <c r="E302" s="1"/>
+    </row>
+    <row r="303" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B303" s="1"/>
+      <c r="E303" s="1"/>
+    </row>
+    <row r="304" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B304" s="1"/>
+      <c r="E304" s="1"/>
+    </row>
+    <row r="305" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B305" s="1"/>
+      <c r="E305" s="1"/>
+    </row>
+    <row r="306" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B306" s="1"/>
+      <c r="E306" s="1"/>
+    </row>
+    <row r="307" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B307" s="1"/>
+      <c r="E307" s="1"/>
+    </row>
+    <row r="308" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B308" s="1"/>
+      <c r="E308" s="1"/>
+    </row>
+    <row r="309" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B309" s="1"/>
+      <c r="E309" s="1"/>
+    </row>
+    <row r="310" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B310" s="1"/>
+      <c r="E310" s="1"/>
+    </row>
+    <row r="311" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B311" s="1"/>
+      <c r="E311" s="1"/>
+    </row>
+    <row r="312" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B312" s="1"/>
+      <c r="E312" s="1"/>
+    </row>
+    <row r="313" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B313" s="1"/>
+      <c r="E313" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AC1" xr:uid="{63E91DF3-84A4-3641-A419-DEA5D3B2C928}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC34">
+      <sortCondition ref="A1:A34"/>
+    </sortState>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B317">
+    <sortCondition ref="B2:B317"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4213,8 +4461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7268EA38-5191-3D4F-A9F4-54AB3EF6039F}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScale="140" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4253,8 +4501,8 @@
         <v>103</v>
       </c>
       <c r="E2">
-        <f>IF(ISNA(VLOOKUP(C2,Foglio2!A:A,1,FALSE)),0,1)</f>
-        <v>0</v>
+        <f>IF(ISNA(VLOOKUP(C2,Foglio2!#REF!,1,FALSE)),0,1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -4271,8 +4519,8 @@
         <v>105</v>
       </c>
       <c r="E3">
-        <f>IF(ISNA(VLOOKUP(C3,Foglio2!A:A,1,FALSE)),0,1)</f>
-        <v>0</v>
+        <f>IF(ISNA(VLOOKUP(C3,Foglio2!#REF!,1,FALSE)),0,1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -4289,8 +4537,8 @@
         <v>107</v>
       </c>
       <c r="E4">
-        <f>IF(ISNA(VLOOKUP(C4,Foglio2!A:A,1,FALSE)),0,1)</f>
-        <v>0</v>
+        <f>IF(ISNA(VLOOKUP(C4,Foglio2!#REF!,1,FALSE)),0,1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -4307,8 +4555,8 @@
         <v>109</v>
       </c>
       <c r="E5">
-        <f>IF(ISNA(VLOOKUP(C5,Foglio2!A:A,1,FALSE)),0,1)</f>
-        <v>0</v>
+        <f>IF(ISNA(VLOOKUP(C5,Foglio2!#REF!,1,FALSE)),0,1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -4325,7 +4573,7 @@
         <v>101</v>
       </c>
       <c r="E6">
-        <f>IF(ISNA(VLOOKUP(C6,Foglio2!A:A,1,FALSE)),0,1)</f>
+        <f>IF(ISNA(VLOOKUP(C6,Foglio2!#REF!,1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4343,7 +4591,7 @@
         <v>97</v>
       </c>
       <c r="E7">
-        <f>IF(ISNA(VLOOKUP(C7,Foglio2!A:A,1,FALSE)),0,1)</f>
+        <f>IF(ISNA(VLOOKUP(C7,Foglio2!#REF!,1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4361,7 +4609,7 @@
         <v>93</v>
       </c>
       <c r="E8">
-        <f>IF(ISNA(VLOOKUP(C8,Foglio2!A:A,1,FALSE)),0,1)</f>
+        <f>IF(ISNA(VLOOKUP(C8,Foglio2!#REF!,1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4379,7 +4627,7 @@
         <v>89</v>
       </c>
       <c r="E9">
-        <f>IF(ISNA(VLOOKUP(C9,Foglio2!A:A,1,FALSE)),0,1)</f>
+        <f>IF(ISNA(VLOOKUP(C9,Foglio2!#REF!,1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4397,7 +4645,7 @@
         <v>82</v>
       </c>
       <c r="E10">
-        <f>IF(ISNA(VLOOKUP(C10,Foglio2!A:A,1,FALSE)),0,1)</f>
+        <f>IF(ISNA(VLOOKUP(C10,Foglio2!#REF!,1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4415,7 +4663,7 @@
         <v>42</v>
       </c>
       <c r="E11">
-        <f>IF(ISNA(VLOOKUP(C11,Foglio2!A:A,1,FALSE)),0,1)</f>
+        <f>IF(ISNA(VLOOKUP(C11,Foglio2!#REF!,1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4433,7 +4681,7 @@
         <v>74</v>
       </c>
       <c r="E12">
-        <f>IF(ISNA(VLOOKUP(C12,Foglio2!A:A,1,FALSE)),0,1)</f>
+        <f>IF(ISNA(VLOOKUP(C12,Foglio2!#REF!,1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4451,7 +4699,7 @@
         <v>39</v>
       </c>
       <c r="E13">
-        <f>IF(ISNA(VLOOKUP(C13,Foglio2!A:A,1,FALSE)),0,1)</f>
+        <f>IF(ISNA(VLOOKUP(C13,Foglio2!#REF!,1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4469,7 +4717,7 @@
         <v>47</v>
       </c>
       <c r="E14">
-        <f>IF(ISNA(VLOOKUP(C14,Foglio2!A:A,1,FALSE)),0,1)</f>
+        <f>IF(ISNA(VLOOKUP(C14,Foglio2!#REF!,1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4487,7 +4735,7 @@
         <v>26</v>
       </c>
       <c r="E15">
-        <f>IF(ISNA(VLOOKUP(C15,Foglio2!A:A,1,FALSE)),0,1)</f>
+        <f>IF(ISNA(VLOOKUP(C15,Foglio2!#REF!,1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4505,7 +4753,7 @@
         <v>52</v>
       </c>
       <c r="E16">
-        <f>IF(ISNA(VLOOKUP(C16,Foglio2!A:A,1,FALSE)),0,1)</f>
+        <f>IF(ISNA(VLOOKUP(C16,Foglio2!#REF!,1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4523,7 +4771,7 @@
         <v>54</v>
       </c>
       <c r="E17">
-        <f>IF(ISNA(VLOOKUP(C17,Foglio2!A:A,1,FALSE)),0,1)</f>
+        <f>IF(ISNA(VLOOKUP(C17,Foglio2!#REF!,1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4541,7 +4789,7 @@
         <v>20</v>
       </c>
       <c r="E18">
-        <f>IF(ISNA(VLOOKUP(C18,Foglio2!A:A,1,FALSE)),0,1)</f>
+        <f>IF(ISNA(VLOOKUP(C18,Foglio2!#REF!,1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4559,7 +4807,7 @@
         <v>78</v>
       </c>
       <c r="E19">
-        <f>IF(ISNA(VLOOKUP(C19,Foglio2!A:A,1,FALSE)),0,1)</f>
+        <f>IF(ISNA(VLOOKUP(C19,Foglio2!#REF!,1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4577,7 +4825,7 @@
         <v>59</v>
       </c>
       <c r="E20">
-        <f>IF(ISNA(VLOOKUP(C20,Foglio2!A:A,1,FALSE)),0,1)</f>
+        <f>IF(ISNA(VLOOKUP(C20,Foglio2!#REF!,1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4595,7 +4843,7 @@
         <v>64</v>
       </c>
       <c r="E21">
-        <f>IF(ISNA(VLOOKUP(C21,Foglio2!A:A,1,FALSE)),0,1)</f>
+        <f>IF(ISNA(VLOOKUP(C21,Foglio2!#REF!,1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4613,7 +4861,7 @@
         <v>68</v>
       </c>
       <c r="E22">
-        <f>IF(ISNA(VLOOKUP(C22,Foglio2!A:A,1,FALSE)),0,1)</f>
+        <f>IF(ISNA(VLOOKUP(C22,Foglio2!#REF!,1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4628,7 +4876,7 @@
         <v>69</v>
       </c>
       <c r="E23">
-        <f>IF(ISNA(VLOOKUP(C23,Foglio2!A:A,1,FALSE)),0,1)</f>
+        <f>IF(ISNA(VLOOKUP(C23,Foglio2!#REF!,1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4646,7 +4894,7 @@
         <v>99</v>
       </c>
       <c r="E24">
-        <f>IF(ISNA(VLOOKUP(C24,Foglio2!A:A,1,FALSE)),0,1)</f>
+        <f>IF(ISNA(VLOOKUP(C24,Foglio2!#REF!,1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4664,7 +4912,7 @@
         <v>95</v>
       </c>
       <c r="E25">
-        <f>IF(ISNA(VLOOKUP(C25,Foglio2!A:A,1,FALSE)),0,1)</f>
+        <f>IF(ISNA(VLOOKUP(C25,Foglio2!#REF!,1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4682,7 +4930,7 @@
         <v>91</v>
       </c>
       <c r="E26">
-        <f>IF(ISNA(VLOOKUP(C26,Foglio2!A:A,1,FALSE)),0,1)</f>
+        <f>IF(ISNA(VLOOKUP(C26,Foglio2!#REF!,1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4700,7 +4948,7 @@
         <v>86</v>
       </c>
       <c r="E27">
-        <f>IF(ISNA(VLOOKUP(C27,Foglio2!A:A,1,FALSE)),0,1)</f>
+        <f>IF(ISNA(VLOOKUP(C27,Foglio2!#REF!,1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4718,7 +4966,7 @@
         <v>83</v>
       </c>
       <c r="E28">
-        <f>IF(ISNA(VLOOKUP(C28,Foglio2!A:A,1,FALSE)),0,1)</f>
+        <f>IF(ISNA(VLOOKUP(C28,Foglio2!#REF!,1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4736,7 +4984,7 @@
         <v>30</v>
       </c>
       <c r="E29">
-        <f>IF(ISNA(VLOOKUP(C29,Foglio2!A:A,1,FALSE)),0,1)</f>
+        <f>IF(ISNA(VLOOKUP(C29,Foglio2!#REF!,1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4754,7 +5002,7 @@
         <v>34</v>
       </c>
       <c r="E30">
-        <f>IF(ISNA(VLOOKUP(C30,Foglio2!A:A,1,FALSE)),0,1)</f>
+        <f>IF(ISNA(VLOOKUP(C30,Foglio2!#REF!,1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4769,7 +5017,7 @@
         <v>35</v>
       </c>
       <c r="E31">
-        <f>IF(ISNA(VLOOKUP(C31,Foglio2!A:A,1,FALSE)),0,1)</f>
+        <f>IF(ISNA(VLOOKUP(C31,Foglio2!#REF!,1,FALSE)),0,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4777,6 +5025,1289 @@
   <autoFilter ref="A1:F1" xr:uid="{7268EA38-5191-3D4F-A9F4-54AB3EF6039F}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{675A11F3-DCA0-E44A-AC5E-4D4335A9C67C}">
+  <dimension ref="A1:E38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>45034.751817129632</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2">
+        <f>IF(ISNA(VLOOKUP(B2,Foglio2!#REF!,1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>44718.735081018516</v>
+      </c>
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3">
+        <f>IF(ISNA(VLOOKUP(B3,Foglio2!#REF!,1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>44742.422118055554</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4">
+        <f>IF(ISNA(VLOOKUP(B4,Foglio2!#REF!,1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>44995.459965277776</v>
+      </c>
+      <c r="B5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5">
+        <f>IF(ISNA(VLOOKUP(B5,Foglio2!#REF!,1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>44974.79105324074</v>
+      </c>
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6">
+        <f>IF(ISNA(VLOOKUP(B6,Foglio2!#REF!,1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>44742.430254629631</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7">
+        <f>IF(ISNA(VLOOKUP(B7,Foglio2!#REF!,1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>44976.866111111114</v>
+      </c>
+      <c r="B8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8">
+        <f>IF(ISNA(VLOOKUP(B8,Foglio2!#REF!,1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>44967.750162037039</v>
+      </c>
+      <c r="B9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9">
+        <f>IF(ISNA(VLOOKUP(B9,Foglio2!#REF!,1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>45034.417337962965</v>
+      </c>
+      <c r="B10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10">
+        <f>IF(ISNA(VLOOKUP(B10,Foglio2!#REF!,1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>44841.469097222223</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11">
+        <f>IF(ISNA(VLOOKUP(B11,Foglio2!#REF!,1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>45054.956990740742</v>
+      </c>
+      <c r="B12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12">
+        <f>IF(ISNA(VLOOKUP(B12,Foglio2!#REF!,1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>44992.543726851851</v>
+      </c>
+      <c r="B13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13">
+        <f>IF(ISNA(VLOOKUP(B13,Foglio2!#REF!,1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>44974.767951388887</v>
+      </c>
+      <c r="B14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14">
+        <f>IF(ISNA(VLOOKUP(B14,Foglio2!#REF!,1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>45034.854421296295</v>
+      </c>
+      <c r="B15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15">
+        <f>IF(ISNA(VLOOKUP(B15,Foglio2!#REF!,1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>45002.919930555552</v>
+      </c>
+      <c r="B16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16">
+        <f>IF(ISNA(VLOOKUP(B16,Foglio2!#REF!,1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>44742.384548611109</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17">
+        <f>IF(ISNA(VLOOKUP(B17,Foglio2!#REF!,1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>44725.618136574078</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18">
+        <f>IF(ISNA(VLOOKUP(B18,Foglio2!#REF!,1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>45051.7266087963</v>
+      </c>
+      <c r="B19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19">
+        <f>IF(ISNA(VLOOKUP(B19,Foglio2!#REF!,1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>44719.515972222223</v>
+      </c>
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20">
+        <f>IF(ISNA(VLOOKUP(B20,Foglio2!#REF!,1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>44975.517268518517</v>
+      </c>
+      <c r="B21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21">
+        <f>IF(ISNA(VLOOKUP(B21,Foglio2!#REF!,1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>45003.626331018517</v>
+      </c>
+      <c r="B22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22">
+        <f>IF(ISNA(VLOOKUP(B22,Foglio2!#REF!,1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>44725.721493055556</v>
+      </c>
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23">
+        <f>IF(ISNA(VLOOKUP(B23,Foglio2!#REF!,1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>44841.444791666669</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24">
+        <f>IF(ISNA(VLOOKUP(B24,Foglio2!#REF!,1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>45035.681446759256</v>
+      </c>
+      <c r="B25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25">
+        <f>IF(ISNA(VLOOKUP(B25,Foglio2!#REF!,1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>44764.605682870373</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26">
+        <f>IF(ISNA(VLOOKUP(B26,Foglio2!#REF!,1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>44974.421990740739</v>
+      </c>
+      <c r="B27" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27">
+        <f>IF(ISNA(VLOOKUP(B27,Foglio2!#REF!,1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>44742.454074074078</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28">
+        <f>IF(ISNA(VLOOKUP(B28,Foglio2!#REF!,1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>44742.467395833337</v>
+      </c>
+      <c r="B29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29">
+        <f>IF(ISNA(VLOOKUP(B29,Foglio2!#REF!,1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>45048.689849537041</v>
+      </c>
+      <c r="B30" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30" t="s">
+        <v>113</v>
+      </c>
+      <c r="D30">
+        <f>IF(ISNA(VLOOKUP(B30,Foglio2!#REF!,1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>44725.594363425924</v>
+      </c>
+      <c r="B31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31">
+        <f>IF(ISNA(VLOOKUP(B31,Foglio2!#REF!,1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>44764.646354166667</v>
+      </c>
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32">
+        <f>IF(ISNA(VLOOKUP(B32,Foglio2!#REF!,1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>45054.504340277781</v>
+      </c>
+      <c r="B33" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" t="s">
+        <v>148</v>
+      </c>
+      <c r="D33">
+        <f>IF(ISNA(VLOOKUP(B33,Foglio2!#REF!,1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>44833.49722222222</v>
+      </c>
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" t="s">
+        <v>146</v>
+      </c>
+      <c r="D34">
+        <f>IF(ISNA(VLOOKUP(B34,Foglio2!#REF!,1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>44719.490104166667</v>
+      </c>
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" t="s">
+        <v>149</v>
+      </c>
+      <c r="D35">
+        <f>IF(ISNA(VLOOKUP(B35,Foglio2!#REF!,1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="B37" s="6"/>
+    </row>
+    <row r="38" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="B38" s="6"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:E34" xr:uid="{675A11F3-DCA0-E44A-AC5E-4D4335A9C67C}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E34">
+      <sortCondition ref="C2:C34"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95F327B5-AD30-BB44-9FCE-1FAA4A507589}">
+  <dimension ref="A1:G39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="42.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>44764.646354166667</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>44718.735081018516</v>
+      </c>
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>44995.459965277776</v>
+      </c>
+      <c r="B4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>44975.517268518517</v>
+      </c>
+      <c r="B5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>45035.681446759256</v>
+      </c>
+      <c r="B6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>44841.444791666669</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>44742.384548611109</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>44725.594363425924</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>44974.767951388887</v>
+      </c>
+      <c r="B10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>44974.79105324074</v>
+      </c>
+      <c r="B11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>44719.515972222223</v>
+      </c>
+      <c r="B12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" t="s">
+        <v>132</v>
+      </c>
+      <c r="E12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>44974.421990740739</v>
+      </c>
+      <c r="B13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>44841.469097222223</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>137</v>
+      </c>
+      <c r="E14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>44719.490104166667</v>
+      </c>
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" t="s">
+        <v>145</v>
+      </c>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>44742.430254629631</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" t="s">
+        <v>142</v>
+      </c>
+      <c r="E16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>45051.7266087963</v>
+      </c>
+      <c r="B17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E17" t="s">
+        <v>116</v>
+      </c>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>44976.866111111114</v>
+      </c>
+      <c r="B18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" t="s">
+        <v>134</v>
+      </c>
+      <c r="E18" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>44764.605682870373</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" t="s">
+        <v>140</v>
+      </c>
+      <c r="E19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>44992.543726851851</v>
+      </c>
+      <c r="B20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" t="s">
+        <v>124</v>
+      </c>
+      <c r="E20" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>44725.618136574078</v>
+      </c>
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" t="s">
+        <v>130</v>
+      </c>
+      <c r="E21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>45048.689849537041</v>
+      </c>
+      <c r="B22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D22" t="s">
+        <v>114</v>
+      </c>
+      <c r="E22" t="s">
+        <v>113</v>
+      </c>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>44742.422118055554</v>
+      </c>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" t="s">
+        <v>143</v>
+      </c>
+      <c r="E23" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>45054.504340277781</v>
+      </c>
+      <c r="B24" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24" t="s">
+        <v>121</v>
+      </c>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>44742.467395833337</v>
+      </c>
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" t="s">
+        <v>141</v>
+      </c>
+      <c r="E25" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>44833.49722222222</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" t="s">
+        <v>139</v>
+      </c>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>45034.751817129632</v>
+      </c>
+      <c r="B27" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" t="s">
+        <v>110</v>
+      </c>
+      <c r="E27" t="s">
+        <v>107</v>
+      </c>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>44967.750162037039</v>
+      </c>
+      <c r="B28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" t="s">
+        <v>136</v>
+      </c>
+      <c r="E28" t="s">
+        <v>83</v>
+      </c>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>45034.417337962965</v>
+      </c>
+      <c r="B29" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E29" t="s">
+        <v>109</v>
+      </c>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>44742.454074074078</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" t="s">
+        <v>128</v>
+      </c>
+      <c r="E30" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>45002.919942129629</v>
+      </c>
+      <c r="B31" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" t="s">
+        <v>97</v>
+      </c>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>45034.854421296295</v>
+      </c>
+      <c r="B32" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" t="s">
+        <v>122</v>
+      </c>
+      <c r="E32" t="s">
+        <v>105</v>
+      </c>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>45003.626331018517</v>
+      </c>
+      <c r="B33" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E33" t="s">
+        <v>101</v>
+      </c>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>44725.721493055556</v>
+      </c>
+      <c r="B34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" t="s">
+        <v>144</v>
+      </c>
+      <c r="E34" t="s">
+        <v>78</v>
+      </c>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>45054.956990740742</v>
+      </c>
+      <c r="B35" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E35" t="s">
+        <v>119</v>
+      </c>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G39" s="2"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:AG1" xr:uid="{95F327B5-AD30-BB44-9FCE-1FAA4A507589}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AG35">
+      <sortCondition ref="B1:B35"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/original_data/dati salvati.xlsx
+++ b/original_data/dati salvati.xlsx
@@ -1,34 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasquettier/Library/Mobile Documents/com~apple~CloudDocs/01.WORK/09.Cariparo/02.Data/github/CPO_online_AIM1/original_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3FDD24-992C-B54E-BCF6-38D9DBF612C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744B561A-2A0A-FA44-8638-AC1CA2BCEC1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10080" yWindow="3100" windowWidth="27640" windowHeight="16940" activeTab="4" xr2:uid="{27DF4848-7C5B-DF42-9237-C4BBC217B84D}"/>
+    <workbookView xWindow="2500" yWindow="-19960" windowWidth="27640" windowHeight="16940" activeTab="2" xr2:uid="{27DF4848-7C5B-DF42-9237-C4BBC217B84D}"/>
   </bookViews>
   <sheets>
     <sheet name="data_exp_88303-v13_questionnair" sheetId="2" r:id="rId1"/>
     <sheet name="Foglio1" sheetId="1" r:id="rId2"/>
     <sheet name="Foglio2" sheetId="3" r:id="rId3"/>
-    <sheet name="Foglio3" sheetId="4" r:id="rId4"/>
-    <sheet name="Foglio4" sheetId="5" r:id="rId5"/>
-    <sheet name="Foglio6" sheetId="7" r:id="rId6"/>
+    <sheet name="Foglio5" sheetId="8" r:id="rId4"/>
+    <sheet name="Foglio3" sheetId="4" r:id="rId5"/>
+    <sheet name="Foglio4" sheetId="5" r:id="rId6"/>
+    <sheet name="Foglio6" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Foglio2!$A$1:$AC$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Foglio3!$A$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Foglio4!$A$2:$E$34</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Foglio6!$A$1:$AG$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Foglio3!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Foglio4!$A$2:$E$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Foglio5!$A$1:$AF$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Foglio6!$A$1:$AG$1</definedName>
     <definedName name="data_exp_88303_v13_questionnaire_92v3_1" localSheetId="2">Foglio2!$A$2:$AD$314</definedName>
-    <definedName name="data_exp_88303_v13_questionnaire_92v3_1" localSheetId="3">Foglio3!$A$1:$D$32</definedName>
-    <definedName name="data_exp_88303_v13_questionnaire_92v3_1" localSheetId="4">Foglio4!$A$1:$C$35</definedName>
-    <definedName name="data_exp_88303_v13_questionnaire_92v3_1" localSheetId="5">Foglio6!$A$1:$D$70</definedName>
+    <definedName name="data_exp_88303_v13_questionnaire_92v3_1" localSheetId="4">Foglio3!$A$1:$D$32</definedName>
+    <definedName name="data_exp_88303_v13_questionnaire_92v3_1" localSheetId="5">Foglio4!$A$1:$C$35</definedName>
+    <definedName name="data_exp_88303_v13_questionnaire_92v3_1" localSheetId="3">Foglio5!$A$1:$F$37</definedName>
+    <definedName name="data_exp_88303_v13_questionnaire_92v3_1" localSheetId="6">Foglio6!$A$1:$D$70</definedName>
     <definedName name="DatiEsterni_1" localSheetId="0" hidden="1">'data_exp_88303-v13_questionnair'!$A$1:$E$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -201,14 +204,51 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="5" xr16:uid="{CF5278B1-D6E4-1F44-B760-868C9B10FCDC}" keepAlive="1" name="Query - data_exp_88303-v13_questionnaire-92v3" description="Connessione alla query 'data_exp_88303-v13_questionnaire-92v3' nella cartella di lavoro." type="5" refreshedVersion="8" background="1" saveData="1">
+  <connection id="5" xr16:uid="{0F522159-4647-584D-9365-0F7E82F98EAA}" name="data_exp_88303-v13_questionnaire-92v34" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="65001" sourceFile="/Users/thomasquettier/Library/Mobile Documents/com~apple~CloudDocs/01.WORK/09.Cariparo/02.Data/github/CPO_online_AIM1/original_data/data_exp_88303-v13_questionnaire-92v3.csv" decimal="," thousands="." comma="1">
+      <textFields count="31">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="6" xr16:uid="{CF5278B1-D6E4-1F44-B760-868C9B10FCDC}" keepAlive="1" name="Query - data_exp_88303-v13_questionnaire-92v3" description="Connessione alla query 'data_exp_88303-v13_questionnaire-92v3' nella cartella di lavoro." type="5" refreshedVersion="8" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=data_exp_88303-v13_questionnaire-92v3;Extended Properties=&quot;&quot;" command="SELECT * FROM [data_exp_88303-v13_questionnaire-92v3]"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="172">
   <si>
     <t>UTC Date</t>
   </si>
@@ -658,6 +698,72 @@
   </si>
   <si>
     <t>bari</t>
+  </si>
+  <si>
+    <t>Participant Viewport Size</t>
+  </si>
+  <si>
+    <t>Question Key</t>
+  </si>
+  <si>
+    <t>1519x722</t>
+  </si>
+  <si>
+    <t>7zfafnfq</t>
+  </si>
+  <si>
+    <t>Novara</t>
+  </si>
+  <si>
+    <t>venzofiorenza57@gmail.com</t>
+  </si>
+  <si>
+    <t>pen6shs7</t>
+  </si>
+  <si>
+    <t>1077x504</t>
+  </si>
+  <si>
+    <t>Arezzo</t>
+  </si>
+  <si>
+    <t>kiara-1975@libero.it</t>
+  </si>
+  <si>
+    <t>1920x947</t>
+  </si>
+  <si>
+    <t>1440x821</t>
+  </si>
+  <si>
+    <t>1519x819</t>
+  </si>
+  <si>
+    <t>1349x615</t>
+  </si>
+  <si>
+    <t>1263x552</t>
+  </si>
+  <si>
+    <t>1903x1047</t>
+  </si>
+  <si>
+    <t>1349x617</t>
+  </si>
+  <si>
+    <t>1519x746</t>
+  </si>
+  <si>
+    <t>1425x837</t>
+  </si>
+  <si>
+    <t>1223x658</t>
+  </si>
+  <si>
+    <t>2560x1297</t>
+  </si>
+  <si>
+    <t>1519x711</t>
   </si>
 </sst>
 </file>
@@ -750,7 +856,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DatiEsterni_1" connectionId="5" xr16:uid="{9409EF47-5103-F74D-B386-4CACEE5DCAFE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DatiEsterni_1" connectionId="6" xr16:uid="{9409EF47-5103-F74D-B386-4CACEE5DCAFE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="32">
     <queryTableFields count="5">
       <queryTableField id="3" name="UTC Date" tableColumnId="3"/>
@@ -796,14 +902,18 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="data_exp_88303_v13_questionnaire_92v3_1" connectionId="5" xr16:uid="{40FC3954-B18F-0E44-AFB6-F7A2B51C53F0}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="data_exp_88303_v13_questionnaire_92v3_1" connectionId="2" xr16:uid="{AA619F23-B5BC-C141-B268-921F796119E6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="data_exp_88303_v13_questionnaire_92v3_1" connectionId="3" xr16:uid="{4E16752E-C36B-5D4E-B503-BDEFBBA2DA95}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="data_exp_88303_v13_questionnaire_92v3_1" connectionId="4" xr16:uid="{A6C05D86-A6E9-A545-B1FE-039A8C8792DA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
@@ -2969,8 +3079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63E91DF3-84A4-3641-A419-DEA5D3B2C928}">
   <dimension ref="A2:AC313"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A34" sqref="A2:A34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3007,8 +3117,8 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>37</v>
+      <c r="A2" t="s">
+        <v>106</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -3017,8 +3127,8 @@
       <c r="AC2" s="2"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>71</v>
+      <c r="A3" t="s">
+        <v>153</v>
       </c>
       <c r="B3" s="4">
         <v>1</v>
@@ -3027,8 +3137,8 @@
       <c r="AC3" s="2"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>98</v>
+      <c r="A4" t="s">
+        <v>156</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
@@ -3037,8 +3147,8 @@
       <c r="AC4" s="2"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>90</v>
+      <c r="A5" t="s">
+        <v>118</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
@@ -3047,8 +3157,8 @@
       <c r="AC5" s="3"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>102</v>
+      <c r="A6" t="s">
+        <v>120</v>
       </c>
       <c r="B6" s="4">
         <v>1</v>
@@ -3056,8 +3166,8 @@
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>31</v>
+      <c r="A7" t="s">
+        <v>115</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
@@ -3066,8 +3176,8 @@
       <c r="AC7" s="2"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
+      <c r="A8" t="s">
+        <v>112</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
@@ -3076,8 +3186,8 @@
       <c r="AC8" s="2"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>60</v>
+      <c r="A9" t="s">
+        <v>102</v>
       </c>
       <c r="B9" s="4">
         <v>1</v>
@@ -3086,8 +3196,8 @@
       <c r="AC9" s="2"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>87</v>
+      <c r="A10" t="s">
+        <v>104</v>
       </c>
       <c r="B10" s="4">
         <v>1</v>
@@ -3096,8 +3206,8 @@
       <c r="AC10" s="2"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>88</v>
+      <c r="A11" t="s">
+        <v>108</v>
       </c>
       <c r="B11" s="4">
         <v>1</v>
@@ -3106,8 +3216,8 @@
       <c r="AC11" s="2"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>65</v>
+      <c r="A12" t="s">
+        <v>100</v>
       </c>
       <c r="B12" s="4">
         <v>1</v>
@@ -3116,8 +3226,8 @@
       <c r="AC12" s="2"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>85</v>
+      <c r="A13" t="s">
+        <v>98</v>
       </c>
       <c r="B13" s="4">
         <v>1</v>
@@ -3126,17 +3236,17 @@
       <c r="AC13" s="2"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="2"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>27</v>
-      </c>
-      <c r="B14" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC14" s="2"/>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="B15" s="4">
         <v>1</v>
@@ -3145,8 +3255,8 @@
       <c r="AC15" s="2"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>48</v>
+      <c r="A16" t="s">
+        <v>31</v>
       </c>
       <c r="B16" s="4">
         <v>1</v>
@@ -3155,8 +3265,8 @@
       <c r="AC16" s="2"/>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>115</v>
+      <c r="A17" t="s">
+        <v>35</v>
       </c>
       <c r="B17" s="4">
         <v>1</v>
@@ -3164,8 +3274,8 @@
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>92</v>
+      <c r="A18" t="s">
+        <v>21</v>
       </c>
       <c r="B18" s="4">
         <v>1</v>
@@ -3174,8 +3284,8 @@
       <c r="AC18" s="2"/>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>40</v>
+      <c r="A19" t="s">
+        <v>7</v>
       </c>
       <c r="B19" s="4">
         <v>1</v>
@@ -3184,8 +3294,8 @@
       <c r="AC19" s="2"/>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>94</v>
+      <c r="A20" t="s">
+        <v>90</v>
       </c>
       <c r="B20" s="4">
         <v>1</v>
@@ -3194,8 +3304,8 @@
       <c r="AC20" s="2"/>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>55</v>
+      <c r="A21" t="s">
+        <v>88</v>
       </c>
       <c r="B21" s="4">
         <v>1</v>
@@ -3204,8 +3314,8 @@
       <c r="AC21" s="2"/>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>112</v>
+      <c r="A22" t="s">
+        <v>87</v>
       </c>
       <c r="B22" s="4">
         <v>1</v>
@@ -3213,8 +3323,8 @@
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>53</v>
+      <c r="A23" t="s">
+        <v>85</v>
       </c>
       <c r="B23" s="4">
         <v>1</v>
@@ -3223,8 +3333,8 @@
       <c r="AC23" s="2"/>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>43</v>
+      <c r="A24" t="s">
+        <v>37</v>
       </c>
       <c r="B24" s="4">
         <v>1</v>
@@ -3233,8 +3343,8 @@
       <c r="AC24" s="2"/>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>35</v>
+      <c r="A25" t="s">
+        <v>40</v>
       </c>
       <c r="B25" s="4">
         <v>1</v>
@@ -3243,8 +3353,8 @@
       <c r="AC25" s="2"/>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>106</v>
+      <c r="A26" t="s">
+        <v>43</v>
       </c>
       <c r="B26" s="4">
         <v>1</v>
@@ -3252,8 +3362,8 @@
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>84</v>
+      <c r="A27" t="s">
+        <v>48</v>
       </c>
       <c r="B27" s="4">
         <v>1</v>
@@ -3262,8 +3372,8 @@
       <c r="AC27" s="2"/>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>108</v>
+      <c r="A28" t="s">
+        <v>53</v>
       </c>
       <c r="B28" s="4">
         <v>1</v>
@@ -3271,8 +3381,8 @@
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>21</v>
+      <c r="A29" t="s">
+        <v>75</v>
       </c>
       <c r="B29" s="4">
         <v>1</v>
@@ -3281,8 +3391,8 @@
       <c r="AC29" s="2"/>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>96</v>
+      <c r="A30" t="s">
+        <v>55</v>
       </c>
       <c r="B30" s="4">
         <v>1</v>
@@ -3291,8 +3401,8 @@
       <c r="AC30" s="2"/>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>104</v>
+      <c r="A31" t="s">
+        <v>60</v>
       </c>
       <c r="B31" s="4">
         <v>1</v>
@@ -3300,8 +3410,8 @@
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>100</v>
+      <c r="A32" t="s">
+        <v>65</v>
       </c>
       <c r="B32" s="4">
         <v>1</v>
@@ -3310,8 +3420,8 @@
       <c r="AC32" s="2"/>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>75</v>
+      <c r="A33" t="s">
+        <v>69</v>
       </c>
       <c r="B33" s="4">
         <v>1</v>
@@ -3320,8 +3430,8 @@
       <c r="AC33" s="2"/>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>118</v>
+      <c r="A34" t="s">
+        <v>71</v>
       </c>
       <c r="B34" s="4">
         <v>1</v>
@@ -3329,14 +3439,23 @@
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>96</v>
+      </c>
       <c r="B35" s="5"/>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>94</v>
+      </c>
       <c r="B36" s="1"/>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>92</v>
+      </c>
       <c r="B37" s="1"/>
       <c r="E37" s="1"/>
     </row>
@@ -4458,11 +4577,896 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{100ABF7C-4F64-5042-A149-246292B48ECA}">
+  <dimension ref="A1:G37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>45034.751817129632</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2">
+        <f>IF(ISNA(VLOOKUP(B2,Foglio2!A:A,1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>45069.506307870368</v>
+      </c>
+      <c r="B3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3">
+        <f>IF(ISNA(VLOOKUP(B3,Foglio2!A:A,1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>154</v>
+      </c>
+      <c r="G3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>45069.500567129631</v>
+      </c>
+      <c r="B4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4">
+        <f>IF(ISNA(VLOOKUP(B4,Foglio2!A:A,1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>45054.956990740742</v>
+      </c>
+      <c r="B5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5">
+        <f>IF(ISNA(VLOOKUP(B5,Foglio2!A:A,1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>45054.504340277781</v>
+      </c>
+      <c r="B6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6">
+        <f>IF(ISNA(VLOOKUP(B6,Foglio2!A:A,1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>45051.7266087963</v>
+      </c>
+      <c r="B7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7">
+        <f>IF(ISNA(VLOOKUP(B7,Foglio2!A:A,1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>45048.689849537041</v>
+      </c>
+      <c r="B8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8">
+        <f>IF(ISNA(VLOOKUP(B8,Foglio2!A:A,1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>113</v>
+      </c>
+      <c r="G8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>45035.681446759256</v>
+      </c>
+      <c r="B9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9">
+        <f>IF(ISNA(VLOOKUP(B9,Foglio2!A:A,1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>163</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>45034.854421296295</v>
+      </c>
+      <c r="B10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10">
+        <f>IF(ISNA(VLOOKUP(B10,Foglio2!A:A,1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>45034.417337962965</v>
+      </c>
+      <c r="B11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11">
+        <f>IF(ISNA(VLOOKUP(B11,Foglio2!A:A,1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>45003.626331018517</v>
+      </c>
+      <c r="B12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12">
+        <f>IF(ISNA(VLOOKUP(B12,Foglio2!A:A,1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>44995.459965277776</v>
+      </c>
+      <c r="B13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13">
+        <f>IF(ISNA(VLOOKUP(B13,Foglio2!A:A,1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>166</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>44967.750162037039</v>
+      </c>
+      <c r="B14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14">
+        <f>IF(ISNA(VLOOKUP(B14,Foglio2!A:A,1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>44841.469097222223</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15">
+        <f>IF(ISNA(VLOOKUP(B15,Foglio2!A:A,1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>44841.444791666669</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16">
+        <f>IF(ISNA(VLOOKUP(B16,Foglio2!A:A,1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>44833.49722222222</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17">
+        <f>IF(ISNA(VLOOKUP(B17,Foglio2!A:A,1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>44742.454074074078</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18">
+        <f>IF(ISNA(VLOOKUP(B18,Foglio2!A:A,1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>44742.384548611109</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <f>IF(ISNA(VLOOKUP(B19,Foglio2!A:A,1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>44975.517268518517</v>
+      </c>
+      <c r="B20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20">
+        <f>IF(ISNA(VLOOKUP(B20,Foglio2!A:A,1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>167</v>
+      </c>
+      <c r="E20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>44974.79105324074</v>
+      </c>
+      <c r="B21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21">
+        <f>IF(ISNA(VLOOKUP(B21,Foglio2!A:A,1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>168</v>
+      </c>
+      <c r="E21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" t="s">
+        <v>89</v>
+      </c>
+      <c r="G21" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>44974.767951388887</v>
+      </c>
+      <c r="B22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22">
+        <f>IF(ISNA(VLOOKUP(B22,Foglio2!A:A,1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>169</v>
+      </c>
+      <c r="E22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" t="s">
+        <v>82</v>
+      </c>
+      <c r="G22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>44974.421990740739</v>
+      </c>
+      <c r="B23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23">
+        <f>IF(ISNA(VLOOKUP(B23,Foglio2!A:A,1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>170</v>
+      </c>
+      <c r="E23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>44764.646354166667</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24">
+        <f>IF(ISNA(VLOOKUP(B24,Foglio2!A:A,1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>44764.605682870373</v>
+      </c>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25">
+        <f>IF(ISNA(VLOOKUP(B25,Foglio2!A:A,1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" t="s">
+        <v>42</v>
+      </c>
+      <c r="G25" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>44742.467395833337</v>
+      </c>
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26">
+        <f>IF(ISNA(VLOOKUP(B26,Foglio2!A:A,1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" t="s">
+        <v>47</v>
+      </c>
+      <c r="G26" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>44742.430254629631</v>
+      </c>
+      <c r="B27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27">
+        <f>IF(ISNA(VLOOKUP(B27,Foglio2!A:A,1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>44742.422118055554</v>
+      </c>
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28">
+        <f>IF(ISNA(VLOOKUP(B28,Foglio2!A:A,1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" t="s">
+        <v>54</v>
+      </c>
+      <c r="G28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>44725.721493055556</v>
+      </c>
+      <c r="B29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29">
+        <f>IF(ISNA(VLOOKUP(B29,Foglio2!A:A,1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" t="s">
+        <v>78</v>
+      </c>
+      <c r="G29" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>44725.618136574078</v>
+      </c>
+      <c r="B30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30">
+        <f>IF(ISNA(VLOOKUP(B30,Foglio2!A:A,1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" t="s">
+        <v>59</v>
+      </c>
+      <c r="G30" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>44725.594363425924</v>
+      </c>
+      <c r="B31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31">
+        <f>IF(ISNA(VLOOKUP(B31,Foglio2!A:A,1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>44719.515972222223</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32">
+        <f>IF(ISNA(VLOOKUP(B32,Foglio2!A:A,1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" t="s">
+        <v>68</v>
+      </c>
+      <c r="G32" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>44719.490104166667</v>
+      </c>
+      <c r="B33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33">
+        <f>IF(ISNA(VLOOKUP(B33,Foglio2!A:A,1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>44718.735081018516</v>
+      </c>
+      <c r="B34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34">
+        <f>IF(ISNA(VLOOKUP(B34,Foglio2!A:A,1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>73</v>
+      </c>
+      <c r="E34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" t="s">
+        <v>74</v>
+      </c>
+      <c r="G34" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>45002.919930555552</v>
+      </c>
+      <c r="B35" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35">
+        <f>IF(ISNA(VLOOKUP(B35,Foglio2!A:A,1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>44992.543726851851</v>
+      </c>
+      <c r="B36" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36">
+        <f>IF(ISNA(VLOOKUP(B36,Foglio2!A:A,1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>70</v>
+      </c>
+      <c r="E36" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" t="s">
+        <v>95</v>
+      </c>
+      <c r="G36" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>44976.866111111114</v>
+      </c>
+      <c r="B37" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37">
+        <f>IF(ISNA(VLOOKUP(B37,Foglio2!A:A,1,FALSE)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>171</v>
+      </c>
+      <c r="E37" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" t="s">
+        <v>93</v>
+      </c>
+      <c r="G37" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:AF1" xr:uid="{100ABF7C-4F64-5042-A149-246292B48ECA}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AF505">
+      <sortCondition ref="E1:E505"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7268EA38-5191-3D4F-A9F4-54AB3EF6039F}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView zoomScale="140" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="A6" zoomScale="140" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5028,11 +6032,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{675A11F3-DCA0-E44A-AC5E-4D4335A9C67C}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
@@ -5682,7 +6686,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95F327B5-AD30-BB44-9FCE-1FAA4A507589}">
   <dimension ref="A1:G39"/>
   <sheetViews>
